--- a/src/test/resources/test13_1.xlsx
+++ b/src/test/resources/test13_1.xlsx
@@ -39,7 +39,7 @@
     <t>0ba7c767-50d5-4506-9f62-79e52aa21426</t>
   </si>
   <si>
-    <t>2022-06-28 10:23:28.507</t>
+    <t>2022-06-29 10:23:28.507</t>
   </si>
   <si>
     <t>name</t>
